--- a/Jogos_do_Dia/2023-04-13_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-13_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="V2" t="n">
         <v>1</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="N5" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -1072,37 +1072,37 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="G6" t="n">
-        <v>8.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="H6" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="N6" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="Q6" t="n">
         <v>3.4</v>
@@ -1111,13 +1111,13 @@
         <v>1.3</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1135,28 +1135,28 @@
         <v>1.71</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="AB6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC6" t="n">
         <v>15</v>
       </c>
-      <c r="AC6" t="n">
-        <v>9.1</v>
-      </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF6" t="n">
         <v>2.2</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="7">
@@ -1182,37 +1182,37 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.2</v>
+        <v>2.73</v>
       </c>
       <c r="G7" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.2</v>
+        <v>2.31</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="M7" t="n">
-        <v>2.43</v>
+        <v>2.15</v>
       </c>
       <c r="N7" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Q7" t="n">
         <v>2.05</v>
@@ -1221,13 +1221,13 @@
         <v>1.7</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="V7" t="n">
         <v>2</v>
@@ -1245,28 +1245,28 @@
         <v>3.09</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.04</v>
+        <v>2.11</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF7" t="n">
         <v>2.2</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="8">
@@ -1292,37 +1292,37 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
         <v>3.3</v>
       </c>
       <c r="H8" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="M8" t="n">
-        <v>2.4</v>
+        <v>2.19</v>
       </c>
       <c r="N8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
         <v>2.1</v>
@@ -1331,13 +1331,13 @@
         <v>1.67</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="V8" t="n">
         <v>3</v>
@@ -1355,28 +1355,28 @@
         <v>2</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="AB8" t="n">
         <v>8.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AF8" t="n">
         <v>2.38</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="9">
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="G9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H9" t="n">
         <v>3.25</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.65</v>
       </c>
       <c r="I9" t="n">
         <v>1.08</v>
@@ -1423,10 +1423,10 @@
         <v>2.85</v>
       </c>
       <c r="M9" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="N9" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="O9" t="n">
         <v>1.47</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3.31</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>4.88</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="G12" t="n">
-        <v>3.15</v>
+        <v>3.32</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.49</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1753,10 +1753,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="N12" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="G13" t="n">
-        <v>3.45</v>
+        <v>3.74</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>4.32</v>
       </c>
       <c r="I13" t="n">
         <v>1.03</v>
@@ -1863,10 +1863,10 @@
         <v>3.75</v>
       </c>
       <c r="M13" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="N13" t="n">
-        <v>1.83</v>
+        <v>2.07</v>
       </c>
       <c r="O13" t="n">
         <v>1.33</v>
@@ -1952,31 +1952,31 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>2.09</v>
       </c>
-      <c r="G14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.98</v>
-      </c>
       <c r="N14" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>3.16</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>3.86</v>
       </c>
       <c r="I15" t="n">
         <v>1.08</v>
@@ -2083,10 +2083,10 @@
         <v>2.9</v>
       </c>
       <c r="M15" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="N15" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="O15" t="n">
         <v>1.48</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="G16" t="n">
-        <v>3.6</v>
+        <v>3.59</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>3.92</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -2193,10 +2193,10 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="N16" t="n">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -2235,13 +2235,13 @@
         <v>3.85</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AG16" t="n">
         <v>0</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="G17" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H17" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="N17" t="n">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2345,10 +2345,10 @@
         <v>3.64</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="AC17" t="n">
         <v>1.87</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>2.51</v>
       </c>
       <c r="G18" t="n">
-        <v>3.4</v>
+        <v>3.11</v>
       </c>
       <c r="H18" t="n">
-        <v>2.38</v>
+        <v>2.98</v>
       </c>
       <c r="I18" t="n">
         <v>1.06</v>
@@ -2413,10 +2413,10 @@
         <v>3.05</v>
       </c>
       <c r="M18" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="O18" t="n">
         <v>1.5</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="G20" t="n">
-        <v>2.81</v>
+        <v>2.97</v>
       </c>
       <c r="H20" t="n">
-        <v>3.07</v>
+        <v>2.96</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2633,10 +2633,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -2645,19 +2645,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="V20" t="n">
         <v>1.77</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="G21" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="H21" t="n">
-        <v>3.1</v>
+        <v>3.12</v>
       </c>
       <c r="I21" t="n">
         <v>1.04</v>
@@ -2743,10 +2743,10 @@
         <v>3.4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="N21" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="O21" t="n">
         <v>1.36</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="G22" t="n">
-        <v>3.75</v>
+        <v>4.13</v>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>5.18</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.55</v>
+        <v>1.76</v>
       </c>
       <c r="G23" t="n">
-        <v>4.1</v>
+        <v>3.68</v>
       </c>
       <c r="H23" t="n">
-        <v>6.2</v>
+        <v>4.77</v>
       </c>
       <c r="I23" t="n">
         <v>1.06</v>
@@ -2963,10 +2963,10 @@
         <v>3.1</v>
       </c>
       <c r="M23" t="n">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="N23" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="O23" t="n">
         <v>1.5</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="G24" t="n">
-        <v>4.9</v>
+        <v>4.52</v>
       </c>
       <c r="H24" t="n">
-        <v>8.199999999999999</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="I24" t="n">
         <v>1.04</v>
@@ -3073,10 +3073,10 @@
         <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="N24" t="n">
-        <v>2.01</v>
+        <v>1.89</v>
       </c>
       <c r="O24" t="n">
         <v>1.33</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="G25" t="n">
         <v>3.3</v>
       </c>
       <c r="H25" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -3183,10 +3183,10 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="N25" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="G26" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H26" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -3293,10 +3293,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="N26" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -3382,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="G27" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H27" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -3403,10 +3403,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="N27" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -3445,13 +3445,13 @@
         <v>3.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="AB27" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="AC27" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -3492,52 +3492,52 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V28" t="n">
         <v>1</v>
@@ -3602,52 +3602,52 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V29" t="n">
         <v>0.73</v>
@@ -3712,52 +3712,52 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="V30" t="n">
         <v>1.64</v>
@@ -3941,16 +3941,16 @@
         <v>2.1</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="M32" t="n">
         <v>2.2</v>
@@ -3959,25 +3959,25 @@
         <v>1.65</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V32" t="n">
         <v>1.6</v>
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="F34" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G34" t="n">
         <v>3</v>
       </c>
-      <c r="G34" t="n">
-        <v>2.95</v>
-      </c>
       <c r="H34" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="I34" t="n">
         <v>1.09</v>
@@ -4170,13 +4170,13 @@
         <v>1.5</v>
       </c>
       <c r="L34" t="n">
-        <v>2.45</v>
+        <v>2.49</v>
       </c>
       <c r="M34" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="N34" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="O34" t="n">
         <v>1.55</v>
@@ -4236,7 +4236,7 @@
         <v>2.63</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="35">
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="G40" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H40" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -4833,10 +4833,10 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="N40" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="G44" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H44" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -5273,10 +5273,10 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="N44" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -5315,10 +5315,10 @@
         <v>1.81</v>
       </c>
       <c r="AA44" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="AB44" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC44" t="n">
         <v>1.67</v>
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>9.199999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="G47" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="H47" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -5606,7 +5606,7 @@
         <v>1.82</v>
       </c>
       <c r="N47" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -5645,7 +5645,7 @@
         <v>2.64</v>
       </c>
       <c r="AA47" t="n">
-        <v>7</v>
+        <v>6.95</v>
       </c>
       <c r="AB47" t="n">
         <v>14</v>
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="G48" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H48" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I48" t="n">
         <v>1.09</v>
@@ -5707,16 +5707,16 @@
         <v>6</v>
       </c>
       <c r="K48" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="L48" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M48" t="n">
         <v>2.4</v>
       </c>
-      <c r="M48" t="n">
-        <v>2.47</v>
-      </c>
       <c r="N48" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="O48" t="n">
         <v>1.5</v>
@@ -5764,7 +5764,7 @@
         <v>3.82</v>
       </c>
       <c r="AD48" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE48" t="n">
         <v>1.57</v>
@@ -5776,7 +5776,7 @@
         <v>2.4</v>
       </c>
       <c r="AH48" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="49">

--- a/Jogos_do_Dia/2023-04-13_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-13_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -680,10 +680,10 @@
         <v>1.55</v>
       </c>
       <c r="V2" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="W2" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="X2" t="n">
         <v>1.65</v>
@@ -790,10 +790,10 @@
         <v>1.72</v>
       </c>
       <c r="V3" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="X3" t="n">
         <v>1.74</v>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="W4" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="X4" t="n">
         <v>1.31</v>
@@ -1025,28 +1025,28 @@
         <v>2.39</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="6">
@@ -1182,10 +1182,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>1.85</v>
@@ -1197,16 +1197,16 @@
         <v>6.1</v>
       </c>
       <c r="K7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="N7" t="n">
         <v>1.53</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.44</v>
       </c>
       <c r="O7" t="n">
         <v>1.53</v>
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="G8" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H8" t="n">
         <v>2.5</v>
@@ -1307,16 +1307,16 @@
         <v>5.5</v>
       </c>
       <c r="K8" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="L8" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="M8" t="n">
-        <v>2.9</v>
+        <v>2.73</v>
       </c>
       <c r="N8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="O8" t="n">
         <v>1.61</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="G9" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
         <v>1.12</v>
@@ -1417,16 +1417,16 @@
         <v>5.5</v>
       </c>
       <c r="K9" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="L9" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M9" t="n">
         <v>2.32</v>
       </c>
-      <c r="M9" t="n">
-        <v>2.88</v>
-      </c>
       <c r="N9" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="O9" t="n">
         <v>1.61</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.6</v>
+        <v>4.44</v>
       </c>
       <c r="G11" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="H11" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1646,7 +1646,7 @@
         <v>1.9</v>
       </c>
       <c r="N11" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
